--- a/Output_data/census.xlsx
+++ b/Output_data/census.xlsx
@@ -34,6 +34,138 @@
     <t>Missouri</t>
   </si>
   <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
     <t>Montana</t>
   </si>
   <si>
@@ -46,144 +178,12 @@
     <t>New Hampshire</t>
   </si>
   <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>Massachusetts</t>
   </si>
   <si>
     <t>Michigan</t>
   </si>
   <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
     <t>1442292</t>
   </si>
   <si>
@@ -196,6 +196,261 @@
     <t>3124766</t>
   </si>
   <si>
+    <t>4340587</t>
+  </si>
+  <si>
+    <t>4541603</t>
+  </si>
+  <si>
+    <t>1037432</t>
+  </si>
+  <si>
+    <t>1059397</t>
+  </si>
+  <si>
+    <t>9447846</t>
+  </si>
+  <si>
+    <t>10005715</t>
+  </si>
+  <si>
+    <t>5100264</t>
+  </si>
+  <si>
+    <t>5387820</t>
+  </si>
+  <si>
+    <t>390032</t>
+  </si>
+  <si>
+    <t>372030</t>
+  </si>
+  <si>
+    <t>5730562</t>
+  </si>
+  <si>
+    <t>5958538</t>
+  </si>
+  <si>
+    <t>1960658</t>
+  </si>
+  <si>
+    <t>1996313</t>
+  </si>
+  <si>
+    <t>2090727</t>
+  </si>
+  <si>
+    <t>2127010</t>
+  </si>
+  <si>
+    <t>6274361</t>
+  </si>
+  <si>
+    <t>6527628</t>
+  </si>
+  <si>
+    <t>515675</t>
+  </si>
+  <si>
+    <t>543686</t>
+  </si>
+  <si>
+    <t>2493139</t>
+  </si>
+  <si>
+    <t>2655575</t>
+  </si>
+  <si>
+    <t>446757</t>
+  </si>
+  <si>
+    <t>437902</t>
+  </si>
+  <si>
+    <t>3332239</t>
+  </si>
+  <si>
+    <t>14402702</t>
+  </si>
+  <si>
+    <t>14593179</t>
+  </si>
+  <si>
+    <t>308316</t>
+  </si>
+  <si>
+    <t>315673</t>
+  </si>
+  <si>
+    <t>1614917</t>
+  </si>
+  <si>
+    <t>1591041</t>
+  </si>
+  <si>
+    <t>4200257</t>
+  </si>
+  <si>
+    <t>4335262</t>
+  </si>
+  <si>
+    <t>3811983</t>
+  </si>
+  <si>
+    <t>3802910</t>
+  </si>
+  <si>
+    <t>887770</t>
+  </si>
+  <si>
+    <t>904377</t>
+  </si>
+  <si>
+    <t>2925225</t>
+  </si>
+  <si>
+    <t>294730</t>
+  </si>
+  <si>
+    <t>284029</t>
+  </si>
+  <si>
+    <t>1515721</t>
+  </si>
+  <si>
+    <t>1677973</t>
+  </si>
+  <si>
+    <t>2369517</t>
+  </si>
+  <si>
+    <t>2533668</t>
+  </si>
+  <si>
+    <t>381418</t>
+  </si>
+  <si>
+    <t>350127</t>
+  </si>
+  <si>
+    <t>3617297</t>
+  </si>
+  <si>
+    <t>3661420</t>
+  </si>
+  <si>
+    <t>1481616</t>
+  </si>
+  <si>
+    <t>1536188</t>
+  </si>
+  <si>
+    <t>19644854</t>
+  </si>
+  <si>
+    <t>19867369</t>
+  </si>
+  <si>
+    <t>2901348</t>
+  </si>
+  <si>
+    <t>2857388</t>
+  </si>
+  <si>
+    <t>470793</t>
+  </si>
+  <si>
+    <t>502971</t>
+  </si>
+  <si>
+    <t>334711</t>
+  </si>
+  <si>
+    <t>371038</t>
+  </si>
+  <si>
+    <t>1739417</t>
+  </si>
+  <si>
+    <t>1825870</t>
+  </si>
+  <si>
+    <t>10497056</t>
+  </si>
+  <si>
+    <t>10980681</t>
+  </si>
+  <si>
+    <t>5160424</t>
+  </si>
+  <si>
+    <t>5456999</t>
+  </si>
+  <si>
+    <t>895928</t>
+  </si>
+  <si>
+    <t>891137</t>
+  </si>
+  <si>
+    <t>708040</t>
+  </si>
+  <si>
+    <t>707832</t>
+  </si>
+  <si>
+    <t>6226558</t>
+  </si>
+  <si>
+    <t>6445263</t>
+  </si>
+  <si>
+    <t>3320360</t>
+  </si>
+  <si>
+    <t>3411859</t>
+  </si>
+  <si>
+    <t>1571075</t>
+  </si>
+  <si>
+    <t>1583995</t>
+  </si>
+  <si>
+    <t>1451697</t>
+  </si>
+  <si>
+    <t>1461617</t>
+  </si>
+  <si>
+    <t>2201029</t>
+  </si>
+  <si>
+    <t>2266644</t>
+  </si>
+  <si>
+    <t>2267050</t>
+  </si>
+  <si>
+    <t>2381744</t>
+  </si>
+  <si>
+    <t>658112</t>
+  </si>
+  <si>
+    <t>686100</t>
+  </si>
+  <si>
+    <t>2928865</t>
+  </si>
+  <si>
+    <t>3116815</t>
+  </si>
+  <si>
+    <t>2829821</t>
+  </si>
+  <si>
     <t>538066</t>
   </si>
   <si>
@@ -220,264 +475,12 @@
     <t>685918</t>
   </si>
   <si>
-    <t>4340587</t>
-  </si>
-  <si>
-    <t>4541603</t>
-  </si>
-  <si>
-    <t>1037432</t>
-  </si>
-  <si>
-    <t>1059397</t>
-  </si>
-  <si>
-    <t>9447846</t>
-  </si>
-  <si>
-    <t>10005715</t>
-  </si>
-  <si>
-    <t>5100264</t>
-  </si>
-  <si>
-    <t>5387820</t>
-  </si>
-  <si>
-    <t>390032</t>
-  </si>
-  <si>
-    <t>372030</t>
-  </si>
-  <si>
-    <t>5730562</t>
-  </si>
-  <si>
-    <t>5958538</t>
-  </si>
-  <si>
-    <t>1960658</t>
-  </si>
-  <si>
-    <t>1996313</t>
-  </si>
-  <si>
-    <t>2090727</t>
-  </si>
-  <si>
-    <t>2127010</t>
-  </si>
-  <si>
-    <t>6274361</t>
-  </si>
-  <si>
-    <t>6527628</t>
-  </si>
-  <si>
-    <t>515675</t>
-  </si>
-  <si>
-    <t>543686</t>
-  </si>
-  <si>
-    <t>2493139</t>
-  </si>
-  <si>
-    <t>2655575</t>
-  </si>
-  <si>
-    <t>446757</t>
-  </si>
-  <si>
-    <t>437902</t>
-  </si>
-  <si>
-    <t>3332239</t>
-  </si>
-  <si>
     <t>3496935</t>
   </si>
   <si>
-    <t>14402702</t>
-  </si>
-  <si>
-    <t>14593179</t>
-  </si>
-  <si>
-    <t>308316</t>
-  </si>
-  <si>
-    <t>315673</t>
-  </si>
-  <si>
-    <t>1614917</t>
-  </si>
-  <si>
-    <t>1591041</t>
-  </si>
-  <si>
-    <t>4200257</t>
-  </si>
-  <si>
-    <t>4335262</t>
-  </si>
-  <si>
-    <t>3811983</t>
-  </si>
-  <si>
-    <t>3802910</t>
-  </si>
-  <si>
-    <t>887770</t>
-  </si>
-  <si>
-    <t>904377</t>
-  </si>
-  <si>
     <t>2897209</t>
   </si>
   <si>
-    <t>2925225</t>
-  </si>
-  <si>
-    <t>294730</t>
-  </si>
-  <si>
-    <t>284029</t>
-  </si>
-  <si>
-    <t>1515721</t>
-  </si>
-  <si>
-    <t>1677973</t>
-  </si>
-  <si>
-    <t>2369517</t>
-  </si>
-  <si>
-    <t>2533668</t>
-  </si>
-  <si>
-    <t>381418</t>
-  </si>
-  <si>
-    <t>350127</t>
-  </si>
-  <si>
-    <t>3617297</t>
-  </si>
-  <si>
-    <t>3661420</t>
-  </si>
-  <si>
-    <t>1481616</t>
-  </si>
-  <si>
-    <t>1536188</t>
-  </si>
-  <si>
-    <t>19644854</t>
-  </si>
-  <si>
-    <t>19867369</t>
-  </si>
-  <si>
-    <t>2901348</t>
-  </si>
-  <si>
-    <t>2857388</t>
-  </si>
-  <si>
-    <t>470793</t>
-  </si>
-  <si>
-    <t>502971</t>
-  </si>
-  <si>
-    <t>334711</t>
-  </si>
-  <si>
-    <t>371038</t>
-  </si>
-  <si>
-    <t>1739417</t>
-  </si>
-  <si>
-    <t>1825870</t>
-  </si>
-  <si>
-    <t>10497056</t>
-  </si>
-  <si>
-    <t>10980681</t>
-  </si>
-  <si>
-    <t>5160424</t>
-  </si>
-  <si>
-    <t>5456999</t>
-  </si>
-  <si>
-    <t>895928</t>
-  </si>
-  <si>
-    <t>891137</t>
-  </si>
-  <si>
-    <t>708040</t>
-  </si>
-  <si>
-    <t>707832</t>
-  </si>
-  <si>
-    <t>6226558</t>
-  </si>
-  <si>
-    <t>6445263</t>
-  </si>
-  <si>
-    <t>3320360</t>
-  </si>
-  <si>
-    <t>3411859</t>
-  </si>
-  <si>
-    <t>1571075</t>
-  </si>
-  <si>
-    <t>1583995</t>
-  </si>
-  <si>
-    <t>1451697</t>
-  </si>
-  <si>
-    <t>1461617</t>
-  </si>
-  <si>
-    <t>2201029</t>
-  </si>
-  <si>
-    <t>2266644</t>
-  </si>
-  <si>
-    <t>2267050</t>
-  </si>
-  <si>
-    <t>2381744</t>
-  </si>
-  <si>
-    <t>658112</t>
-  </si>
-  <si>
-    <t>686100</t>
-  </si>
-  <si>
-    <t>2928865</t>
-  </si>
-  <si>
-    <t>3116815</t>
-  </si>
-  <si>
     <t>3345568</t>
   </si>
   <si>
@@ -493,9 +496,6 @@
     <t>2809811</t>
   </si>
   <si>
-    <t>2829821</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -508,6 +508,138 @@
     <t>29</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
@@ -520,142 +652,10 @@
     <t>33</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
     <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
   </si>
 </sst>
 </file>
@@ -1441,16 +1441,16 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1461,7 +1461,7 @@
         <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
         <v>177</v>
@@ -1469,16 +1469,16 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1489,7 +1489,7 @@
         <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
         <v>178</v>
@@ -1497,16 +1497,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1517,7 +1517,7 @@
         <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D36" t="s">
         <v>179</v>
@@ -1525,16 +1525,16 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1545,7 +1545,7 @@
         <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
         <v>180</v>
@@ -1553,16 +1553,16 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1573,7 +1573,7 @@
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
         <v>181</v>
@@ -1581,16 +1581,16 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1601,7 +1601,7 @@
         <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
         <v>182</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
         <v>97</v>
@@ -1618,12 +1618,12 @@
         <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
         <v>98</v>
@@ -1632,12 +1632,12 @@
         <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
         <v>99</v>
@@ -1646,12 +1646,12 @@
         <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
@@ -1660,12 +1660,12 @@
         <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
         <v>101</v>
@@ -1674,12 +1674,12 @@
         <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
@@ -1688,12 +1688,12 @@
         <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
         <v>103</v>
@@ -1702,12 +1702,12 @@
         <v>161</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
         <v>104</v>
@@ -1716,12 +1716,12 @@
         <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
         <v>105</v>
@@ -1730,12 +1730,12 @@
         <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
         <v>106</v>
@@ -1744,12 +1744,12 @@
         <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
         <v>107</v>
@@ -1758,12 +1758,12 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
@@ -1772,12 +1772,12 @@
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
@@ -1786,12 +1786,12 @@
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56" t="s">
         <v>110</v>
@@ -1800,12 +1800,12 @@
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
@@ -1814,12 +1814,12 @@
         <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
         <v>112</v>
@@ -1828,12 +1828,12 @@
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
         <v>113</v>
@@ -1842,12 +1842,12 @@
         <v>161</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
         <v>114</v>
@@ -1856,12 +1856,12 @@
         <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
         <v>115</v>
@@ -1870,12 +1870,12 @@
         <v>161</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B62" t="s">
         <v>116</v>
@@ -1884,12 +1884,12 @@
         <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
         <v>117</v>
@@ -1898,12 +1898,12 @@
         <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B64" t="s">
         <v>118</v>
@@ -1912,12 +1912,12 @@
         <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B65" t="s">
         <v>119</v>
@@ -1926,12 +1926,12 @@
         <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s">
         <v>120</v>
@@ -1940,12 +1940,12 @@
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
         <v>121</v>
@@ -1954,12 +1954,12 @@
         <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B68" t="s">
         <v>122</v>
@@ -1968,12 +1968,12 @@
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
         <v>123</v>
@@ -1982,12 +1982,12 @@
         <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
         <v>124</v>
@@ -1996,12 +1996,12 @@
         <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
         <v>125</v>
@@ -2010,12 +2010,12 @@
         <v>161</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
         <v>126</v>
@@ -2024,12 +2024,12 @@
         <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
         <v>127</v>
@@ -2038,12 +2038,12 @@
         <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
         <v>128</v>
@@ -2052,12 +2052,12 @@
         <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
         <v>129</v>
@@ -2066,12 +2066,12 @@
         <v>161</v>
       </c>
       <c r="D75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
         <v>130</v>
@@ -2080,12 +2080,12 @@
         <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
         <v>131</v>
@@ -2094,12 +2094,12 @@
         <v>161</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
         <v>132</v>
@@ -2108,12 +2108,12 @@
         <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
         <v>133</v>
@@ -2122,12 +2122,12 @@
         <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B80" t="s">
         <v>134</v>
@@ -2136,12 +2136,12 @@
         <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
         <v>135</v>
@@ -2150,12 +2150,12 @@
         <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
         <v>136</v>
@@ -2164,12 +2164,12 @@
         <v>160</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B83" t="s">
         <v>137</v>
@@ -2178,12 +2178,12 @@
         <v>161</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
@@ -2192,12 +2192,12 @@
         <v>160</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B85" t="s">
         <v>139</v>
@@ -2206,12 +2206,12 @@
         <v>161</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
         <v>140</v>
@@ -2220,12 +2220,12 @@
         <v>160</v>
       </c>
       <c r="D86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
         <v>141</v>
@@ -2234,12 +2234,12 @@
         <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
         <v>142</v>
@@ -2248,12 +2248,12 @@
         <v>160</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
         <v>143</v>
@@ -2262,138 +2262,138 @@
         <v>161</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
         <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
         <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
         <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
         <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
         <v>148</v>
       </c>
       <c r="C94" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
         <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B96" t="s">
         <v>150</v>
       </c>
       <c r="C96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
         <v>151</v>
       </c>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
         <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B99" t="s">
         <v>153</v>
@@ -2402,12 +2402,12 @@
         <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
         <v>154</v>
@@ -2416,21 +2416,21 @@
         <v>160</v>
       </c>
       <c r="D100" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
         <v>155</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2441,7 +2441,7 @@
         <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D102" t="s">
         <v>212</v>
@@ -2449,16 +2449,16 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
         <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2469,7 +2469,7 @@
         <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D104" t="s">
         <v>213</v>
@@ -2477,16 +2477,16 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
         <v>159</v>
       </c>
       <c r="C105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D105" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Output_data/census.xlsx
+++ b/Output_data/census.xlsx
@@ -40,87 +40,120 @@
     <t>Nebraska</t>
   </si>
   <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
     <t>Nevada</t>
   </si>
   <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
     <t>New Jersey</t>
   </si>
   <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
     <t>Oklahoma</t>
   </si>
   <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
     <t>Rhode Island</t>
   </si>
   <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
     <t>Vermont</t>
   </si>
   <si>
     <t>Utah</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>West Virginia</t>
   </si>
   <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Arkansas</t>
   </si>
   <si>
@@ -133,9 +166,6 @@
     <t>Delaware</t>
   </si>
   <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
     <t>Connecticut</t>
   </si>
   <si>
@@ -145,45 +175,15 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>Iowa</t>
   </si>
   <si>
     <t>Kansas</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
     <t>Maine</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
     <t>1442292</t>
   </si>
   <si>
@@ -208,51 +208,141 @@
     <t>967959</t>
   </si>
   <si>
+    <t>673793</t>
+  </si>
+  <si>
+    <t>685918</t>
+  </si>
+  <si>
+    <t>1037432</t>
+  </si>
+  <si>
+    <t>9447846</t>
+  </si>
+  <si>
+    <t>5100264</t>
+  </si>
+  <si>
+    <t>390032</t>
+  </si>
+  <si>
+    <t>5730562</t>
+  </si>
+  <si>
+    <t>6274361</t>
+  </si>
+  <si>
+    <t>2493139</t>
+  </si>
+  <si>
+    <t>446757</t>
+  </si>
+  <si>
+    <t>3332239</t>
+  </si>
+  <si>
+    <t>14402702</t>
+  </si>
+  <si>
+    <t>4200257</t>
+  </si>
+  <si>
+    <t>3811983</t>
+  </si>
+  <si>
+    <t>2897209</t>
+  </si>
+  <si>
+    <t>294730</t>
+  </si>
+  <si>
+    <t>2369517</t>
+  </si>
+  <si>
+    <t>3617297</t>
+  </si>
+  <si>
+    <t>334711</t>
+  </si>
+  <si>
+    <t>371038</t>
+  </si>
+  <si>
+    <t>895928</t>
+  </si>
+  <si>
+    <t>708040</t>
+  </si>
+  <si>
+    <t>707832</t>
+  </si>
+  <si>
+    <t>6226558</t>
+  </si>
+  <si>
+    <t>6445263</t>
+  </si>
+  <si>
+    <t>3320360</t>
+  </si>
+  <si>
+    <t>2201029</t>
+  </si>
+  <si>
+    <t>2266644</t>
+  </si>
+  <si>
+    <t>2267050</t>
+  </si>
+  <si>
+    <t>2928865</t>
+  </si>
+  <si>
+    <t>3116815</t>
+  </si>
+  <si>
+    <t>3345568</t>
+  </si>
+  <si>
+    <t>4918528</t>
+  </si>
+  <si>
+    <t>5068329</t>
+  </si>
+  <si>
+    <t>2809811</t>
+  </si>
+  <si>
+    <t>2829821</t>
+  </si>
+  <si>
+    <t>3546935</t>
+  </si>
+  <si>
     <t>1544827</t>
   </si>
   <si>
     <t>1535329</t>
   </si>
   <si>
-    <t>673793</t>
-  </si>
-  <si>
-    <t>685918</t>
-  </si>
-  <si>
     <t>4340587</t>
   </si>
   <si>
     <t>4541603</t>
   </si>
   <si>
-    <t>1037432</t>
-  </si>
-  <si>
     <t>1059397</t>
   </si>
   <si>
-    <t>9447846</t>
-  </si>
-  <si>
     <t>10005715</t>
   </si>
   <si>
-    <t>5100264</t>
-  </si>
-  <si>
     <t>5387820</t>
   </si>
   <si>
-    <t>390032</t>
-  </si>
-  <si>
     <t>372030</t>
   </si>
   <si>
-    <t>5730562</t>
-  </si>
-  <si>
     <t>5958538</t>
   </si>
   <si>
@@ -268,9 +358,6 @@
     <t>2127010</t>
   </si>
   <si>
-    <t>6274361</t>
-  </si>
-  <si>
     <t>6527628</t>
   </si>
   <si>
@@ -280,27 +367,15 @@
     <t>543686</t>
   </si>
   <si>
-    <t>2493139</t>
-  </si>
-  <si>
     <t>2655575</t>
   </si>
   <si>
-    <t>446757</t>
-  </si>
-  <si>
     <t>437902</t>
   </si>
   <si>
-    <t>3332239</t>
-  </si>
-  <si>
     <t>3496935</t>
   </si>
   <si>
-    <t>14402702</t>
-  </si>
-  <si>
     <t>14593179</t>
   </si>
   <si>
@@ -316,15 +391,9 @@
     <t>1591041</t>
   </si>
   <si>
-    <t>4200257</t>
-  </si>
-  <si>
     <t>4335262</t>
   </si>
   <si>
-    <t>3811983</t>
-  </si>
-  <si>
     <t>3802910</t>
   </si>
   <si>
@@ -334,15 +403,9 @@
     <t>904377</t>
   </si>
   <si>
-    <t>2897209</t>
-  </si>
-  <si>
     <t>2925225</t>
   </si>
   <si>
-    <t>294730</t>
-  </si>
-  <si>
     <t>284029</t>
   </si>
   <si>
@@ -352,9 +415,6 @@
     <t>1677973</t>
   </si>
   <si>
-    <t>2369517</t>
-  </si>
-  <si>
     <t>2533668</t>
   </si>
   <si>
@@ -364,9 +424,6 @@
     <t>350127</t>
   </si>
   <si>
-    <t>3617297</t>
-  </si>
-  <si>
     <t>3661420</t>
   </si>
   <si>
@@ -394,12 +451,6 @@
     <t>502971</t>
   </si>
   <si>
-    <t>334711</t>
-  </si>
-  <si>
-    <t>371038</t>
-  </si>
-  <si>
     <t>1739417</t>
   </si>
   <si>
@@ -418,27 +469,9 @@
     <t>5456999</t>
   </si>
   <si>
-    <t>895928</t>
-  </si>
-  <si>
     <t>891137</t>
   </si>
   <si>
-    <t>708040</t>
-  </si>
-  <si>
-    <t>707832</t>
-  </si>
-  <si>
-    <t>6226558</t>
-  </si>
-  <si>
-    <t>6445263</t>
-  </si>
-  <si>
-    <t>3320360</t>
-  </si>
-  <si>
     <t>3411859</t>
   </si>
   <si>
@@ -454,15 +487,6 @@
     <t>1461617</t>
   </si>
   <si>
-    <t>2201029</t>
-  </si>
-  <si>
-    <t>2266644</t>
-  </si>
-  <si>
-    <t>2267050</t>
-  </si>
-  <si>
     <t>2381744</t>
   </si>
   <si>
@@ -472,30 +496,6 @@
     <t>686100</t>
   </si>
   <si>
-    <t>2928865</t>
-  </si>
-  <si>
-    <t>3116815</t>
-  </si>
-  <si>
-    <t>3345568</t>
-  </si>
-  <si>
-    <t>3546935</t>
-  </si>
-  <si>
-    <t>4918528</t>
-  </si>
-  <si>
-    <t>5068329</t>
-  </si>
-  <si>
-    <t>2809811</t>
-  </si>
-  <si>
-    <t>2829821</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -514,87 +514,120 @@
     <t>31</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
     <t>05</t>
   </si>
   <si>
@@ -607,9 +640,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
@@ -619,43 +649,13 @@
     <t>13</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
   </si>
 </sst>
 </file>
@@ -1189,21 +1189,21 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -1212,26 +1212,26 @@
         <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -1240,26 +1240,26 @@
         <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -1268,26 +1268,26 @@
         <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -1296,26 +1296,26 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -1324,26 +1324,26 @@
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>78</v>
@@ -1352,26 +1352,26 @@
         <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>80</v>
@@ -1380,26 +1380,26 @@
         <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>82</v>
@@ -1408,12 +1408,12 @@
         <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
@@ -1422,12 +1422,12 @@
         <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
@@ -1436,82 +1436,82 @@
         <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>90</v>
@@ -1520,12 +1520,12 @@
         <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
@@ -1534,12 +1534,12 @@
         <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
         <v>92</v>
@@ -1548,54 +1548,54 @@
         <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>96</v>
@@ -1604,12 +1604,12 @@
         <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
         <v>97</v>
@@ -1618,12 +1618,12 @@
         <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
         <v>98</v>
@@ -1632,12 +1632,12 @@
         <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
         <v>99</v>
@@ -1646,82 +1646,82 @@
         <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
         <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
         <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
         <v>105</v>
@@ -1730,26 +1730,26 @@
         <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
         <v>107</v>
@@ -1758,26 +1758,26 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
@@ -1786,12 +1786,12 @@
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
         <v>110</v>
@@ -1800,12 +1800,12 @@
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
@@ -1814,12 +1814,12 @@
         <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s">
         <v>112</v>
@@ -1828,12 +1828,12 @@
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s">
         <v>113</v>
@@ -1842,54 +1842,54 @@
         <v>161</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
         <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
         <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
         <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
         <v>117</v>
@@ -1898,26 +1898,26 @@
         <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
         <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
         <v>119</v>
@@ -1926,82 +1926,82 @@
         <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
         <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
         <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B68" t="s">
         <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B69" t="s">
         <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
         <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
         <v>125</v>
@@ -2010,54 +2010,54 @@
         <v>161</v>
       </c>
       <c r="D71" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
         <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D72" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B73" t="s">
         <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
         <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D74" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
         <v>129</v>
@@ -2066,54 +2066,54 @@
         <v>161</v>
       </c>
       <c r="D75" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
         <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
         <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
         <v>132</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B79" t="s">
         <v>133</v>
@@ -2122,12 +2122,12 @@
         <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
         <v>134</v>
@@ -2136,12 +2136,12 @@
         <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B81" t="s">
         <v>135</v>
@@ -2150,222 +2150,222 @@
         <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
         <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
         <v>137</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B85" t="s">
         <v>139</v>
       </c>
       <c r="C85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" t="s">
         <v>140</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
         <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
         <v>142</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s">
         <v>143</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
         <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
         <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s">
         <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B93" t="s">
         <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D93" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B94" t="s">
         <v>148</v>
       </c>
       <c r="C94" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
         <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B96" t="s">
         <v>150</v>
       </c>
       <c r="C96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B97" t="s">
         <v>151</v>
@@ -2374,35 +2374,35 @@
         <v>161</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
         <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D98" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
         <v>153</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2413,7 +2413,7 @@
         <v>154</v>
       </c>
       <c r="C100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
         <v>211</v>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
         <v>155</v>
       </c>
       <c r="C101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2441,7 +2441,7 @@
         <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D102" t="s">
         <v>212</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B103" t="s">
         <v>157</v>
@@ -2458,7 +2458,7 @@
         <v>161</v>
       </c>
       <c r="D103" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:4">

--- a/Output_data/census.xlsx
+++ b/Output_data/census.xlsx
@@ -40,9 +40,15 @@
     <t>Nebraska</t>
   </si>
   <si>
+    <t>Nevada</t>
+  </si>
+  <si>
     <t>New Hampshire</t>
   </si>
   <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
     <t>New Mexico</t>
   </si>
   <si>
@@ -58,9 +64,18 @@
     <t>Ohio</t>
   </si>
   <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
     <t>Pennsylvania</t>
   </si>
   <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
     <t>South Carolina</t>
   </si>
   <si>
@@ -73,27 +88,63 @@
     <t>Texas</t>
   </si>
   <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
     <t>Washington</t>
   </si>
   <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
     <t>Wisconsin</t>
   </si>
   <si>
     <t>Wyoming</t>
   </si>
   <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
+    <t>Alaska</t>
+  </si>
+  <si>
     <t>Arizona</t>
   </si>
   <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
     <t>District of Columbia</t>
   </si>
   <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Idaho</t>
   </si>
   <si>
@@ -106,12 +157,21 @@
     <t>Indiana</t>
   </si>
   <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
     <t>Kentucky</t>
   </si>
   <si>
     <t>Louisiana</t>
   </si>
   <si>
+    <t>Maine</t>
+  </si>
+  <si>
     <t>Maryland</t>
   </si>
   <si>
@@ -124,66 +184,6 @@
     <t>Minnesota</t>
   </si>
   <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
     <t>1442292</t>
   </si>
   <si>
@@ -208,69 +208,222 @@
     <t>967959</t>
   </si>
   <si>
+    <t>1544827</t>
+  </si>
+  <si>
+    <t>1535329</t>
+  </si>
+  <si>
     <t>673793</t>
   </si>
   <si>
     <t>685918</t>
   </si>
   <si>
+    <t>4340587</t>
+  </si>
+  <si>
+    <t>4541603</t>
+  </si>
+  <si>
     <t>1037432</t>
   </si>
   <si>
+    <t>1059397</t>
+  </si>
+  <si>
     <t>9447846</t>
   </si>
   <si>
+    <t>10005715</t>
+  </si>
+  <si>
     <t>5100264</t>
   </si>
   <si>
+    <t>5387820</t>
+  </si>
+  <si>
     <t>390032</t>
   </si>
   <si>
+    <t>372030</t>
+  </si>
+  <si>
     <t>5730562</t>
   </si>
   <si>
+    <t>5958538</t>
+  </si>
+  <si>
+    <t>1960658</t>
+  </si>
+  <si>
+    <t>1996313</t>
+  </si>
+  <si>
+    <t>2090727</t>
+  </si>
+  <si>
+    <t>2127010</t>
+  </si>
+  <si>
     <t>6274361</t>
   </si>
   <si>
+    <t>6527628</t>
+  </si>
+  <si>
+    <t>515675</t>
+  </si>
+  <si>
+    <t>543686</t>
+  </si>
+  <si>
     <t>2493139</t>
   </si>
   <si>
+    <t>2655575</t>
+  </si>
+  <si>
     <t>446757</t>
   </si>
   <si>
+    <t>437902</t>
+  </si>
+  <si>
     <t>3332239</t>
   </si>
   <si>
+    <t>3496935</t>
+  </si>
+  <si>
     <t>14402702</t>
   </si>
   <si>
+    <t>14593179</t>
+  </si>
+  <si>
+    <t>308316</t>
+  </si>
+  <si>
+    <t>315673</t>
+  </si>
+  <si>
+    <t>1614917</t>
+  </si>
+  <si>
+    <t>1591041</t>
+  </si>
+  <si>
     <t>4200257</t>
   </si>
   <si>
+    <t>4335262</t>
+  </si>
+  <si>
     <t>3811983</t>
   </si>
   <si>
+    <t>3802910</t>
+  </si>
+  <si>
+    <t>887770</t>
+  </si>
+  <si>
+    <t>904377</t>
+  </si>
+  <si>
     <t>2897209</t>
   </si>
   <si>
+    <t>2925225</t>
+  </si>
+  <si>
     <t>294730</t>
   </si>
   <si>
+    <t>284029</t>
+  </si>
+  <si>
+    <t>1515721</t>
+  </si>
+  <si>
+    <t>1677973</t>
+  </si>
+  <si>
     <t>2369517</t>
   </si>
   <si>
+    <t>2533668</t>
+  </si>
+  <si>
+    <t>381418</t>
+  </si>
+  <si>
+    <t>350127</t>
+  </si>
+  <si>
     <t>3617297</t>
   </si>
   <si>
+    <t>3661420</t>
+  </si>
+  <si>
+    <t>1481616</t>
+  </si>
+  <si>
+    <t>1536188</t>
+  </si>
+  <si>
+    <t>19644854</t>
+  </si>
+  <si>
+    <t>19867369</t>
+  </si>
+  <si>
+    <t>2901348</t>
+  </si>
+  <si>
+    <t>2857388</t>
+  </si>
+  <si>
+    <t>470793</t>
+  </si>
+  <si>
+    <t>502971</t>
+  </si>
+  <si>
     <t>334711</t>
   </si>
   <si>
     <t>371038</t>
   </si>
   <si>
+    <t>1739417</t>
+  </si>
+  <si>
+    <t>1825870</t>
+  </si>
+  <si>
+    <t>10497056</t>
+  </si>
+  <si>
+    <t>10980681</t>
+  </si>
+  <si>
+    <t>5160424</t>
+  </si>
+  <si>
+    <t>5456999</t>
+  </si>
+  <si>
     <t>895928</t>
   </si>
   <si>
+    <t>891137</t>
+  </si>
+  <si>
     <t>708040</t>
   </si>
   <si>
@@ -286,6 +439,21 @@
     <t>3320360</t>
   </si>
   <si>
+    <t>3411859</t>
+  </si>
+  <si>
+    <t>1571075</t>
+  </si>
+  <si>
+    <t>1583995</t>
+  </si>
+  <si>
+    <t>1451697</t>
+  </si>
+  <si>
+    <t>1461617</t>
+  </si>
+  <si>
     <t>2201029</t>
   </si>
   <si>
@@ -295,6 +463,15 @@
     <t>2267050</t>
   </si>
   <si>
+    <t>2381744</t>
+  </si>
+  <si>
+    <t>658112</t>
+  </si>
+  <si>
+    <t>686100</t>
+  </si>
+  <si>
     <t>2928865</t>
   </si>
   <si>
@@ -304,6 +481,9 @@
     <t>3345568</t>
   </si>
   <si>
+    <t>3546935</t>
+  </si>
+  <si>
     <t>4918528</t>
   </si>
   <si>
@@ -316,186 +496,6 @@
     <t>2829821</t>
   </si>
   <si>
-    <t>3546935</t>
-  </si>
-  <si>
-    <t>1544827</t>
-  </si>
-  <si>
-    <t>1535329</t>
-  </si>
-  <si>
-    <t>4340587</t>
-  </si>
-  <si>
-    <t>4541603</t>
-  </si>
-  <si>
-    <t>1059397</t>
-  </si>
-  <si>
-    <t>10005715</t>
-  </si>
-  <si>
-    <t>5387820</t>
-  </si>
-  <si>
-    <t>372030</t>
-  </si>
-  <si>
-    <t>5958538</t>
-  </si>
-  <si>
-    <t>1960658</t>
-  </si>
-  <si>
-    <t>1996313</t>
-  </si>
-  <si>
-    <t>2090727</t>
-  </si>
-  <si>
-    <t>2127010</t>
-  </si>
-  <si>
-    <t>6527628</t>
-  </si>
-  <si>
-    <t>515675</t>
-  </si>
-  <si>
-    <t>543686</t>
-  </si>
-  <si>
-    <t>2655575</t>
-  </si>
-  <si>
-    <t>437902</t>
-  </si>
-  <si>
-    <t>3496935</t>
-  </si>
-  <si>
-    <t>14593179</t>
-  </si>
-  <si>
-    <t>308316</t>
-  </si>
-  <si>
-    <t>315673</t>
-  </si>
-  <si>
-    <t>1614917</t>
-  </si>
-  <si>
-    <t>1591041</t>
-  </si>
-  <si>
-    <t>4335262</t>
-  </si>
-  <si>
-    <t>3802910</t>
-  </si>
-  <si>
-    <t>887770</t>
-  </si>
-  <si>
-    <t>904377</t>
-  </si>
-  <si>
-    <t>2925225</t>
-  </si>
-  <si>
-    <t>284029</t>
-  </si>
-  <si>
-    <t>1515721</t>
-  </si>
-  <si>
-    <t>1677973</t>
-  </si>
-  <si>
-    <t>2533668</t>
-  </si>
-  <si>
-    <t>381418</t>
-  </si>
-  <si>
-    <t>350127</t>
-  </si>
-  <si>
-    <t>3661420</t>
-  </si>
-  <si>
-    <t>1481616</t>
-  </si>
-  <si>
-    <t>1536188</t>
-  </si>
-  <si>
-    <t>19644854</t>
-  </si>
-  <si>
-    <t>19867369</t>
-  </si>
-  <si>
-    <t>2901348</t>
-  </si>
-  <si>
-    <t>2857388</t>
-  </si>
-  <si>
-    <t>470793</t>
-  </si>
-  <si>
-    <t>502971</t>
-  </si>
-  <si>
-    <t>1739417</t>
-  </si>
-  <si>
-    <t>1825870</t>
-  </si>
-  <si>
-    <t>10497056</t>
-  </si>
-  <si>
-    <t>10980681</t>
-  </si>
-  <si>
-    <t>5160424</t>
-  </si>
-  <si>
-    <t>5456999</t>
-  </si>
-  <si>
-    <t>891137</t>
-  </si>
-  <si>
-    <t>3411859</t>
-  </si>
-  <si>
-    <t>1571075</t>
-  </si>
-  <si>
-    <t>1583995</t>
-  </si>
-  <si>
-    <t>1451697</t>
-  </si>
-  <si>
-    <t>1461617</t>
-  </si>
-  <si>
-    <t>2381744</t>
-  </si>
-  <si>
-    <t>658112</t>
-  </si>
-  <si>
-    <t>686100</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -514,9 +514,15 @@
     <t>31</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
@@ -532,9 +538,18 @@
     <t>39</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
@@ -547,27 +562,63 @@
     <t>48</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
     <t>56</t>
   </si>
   <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -580,12 +631,21 @@
     <t>18</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -596,66 +656,6 @@
   </si>
   <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
 </sst>
 </file>
@@ -1189,21 +1189,21 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -1212,26 +1212,26 @@
         <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -1240,26 +1240,26 @@
         <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -1268,26 +1268,26 @@
         <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -1296,26 +1296,26 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -1324,26 +1324,26 @@
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>78</v>
@@ -1352,26 +1352,26 @@
         <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>80</v>
@@ -1380,26 +1380,26 @@
         <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>82</v>
@@ -1408,12 +1408,12 @@
         <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
@@ -1422,12 +1422,12 @@
         <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
@@ -1436,82 +1436,82 @@
         <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
         <v>90</v>
@@ -1520,12 +1520,12 @@
         <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>91</v>
@@ -1534,12 +1534,12 @@
         <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
         <v>92</v>
@@ -1548,54 +1548,54 @@
         <v>160</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
         <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>96</v>
@@ -1604,12 +1604,12 @@
         <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>97</v>
@@ -1618,12 +1618,12 @@
         <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
         <v>98</v>
@@ -1632,12 +1632,12 @@
         <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
         <v>99</v>
@@ -1646,82 +1646,82 @@
         <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
         <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
         <v>102</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
         <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
         <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
         <v>105</v>
@@ -1730,26 +1730,26 @@
         <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
         <v>106</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
         <v>107</v>
@@ -1758,26 +1758,26 @@
         <v>161</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
@@ -1786,12 +1786,12 @@
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
         <v>110</v>
@@ -1800,12 +1800,12 @@
         <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
@@ -1814,12 +1814,12 @@
         <v>161</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
         <v>112</v>
@@ -1828,12 +1828,12 @@
         <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
         <v>113</v>
@@ -1842,54 +1842,54 @@
         <v>161</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
         <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
         <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
         <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
         <v>117</v>
@@ -1898,26 +1898,26 @@
         <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
         <v>119</v>
@@ -1926,82 +1926,82 @@
         <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
         <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
         <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
         <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s">
         <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
         <v>124</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
         <v>125</v>
@@ -2010,54 +2010,54 @@
         <v>161</v>
       </c>
       <c r="D71" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
         <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
         <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
         <v>128</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
         <v>129</v>
@@ -2066,54 +2066,54 @@
         <v>161</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
         <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
         <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D77" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
         <v>132</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
         <v>133</v>
@@ -2122,12 +2122,12 @@
         <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
         <v>134</v>
@@ -2136,12 +2136,12 @@
         <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
         <v>135</v>
@@ -2150,222 +2150,222 @@
         <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
         <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83" t="s">
         <v>137</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D83" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
         <v>138</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
         <v>139</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
         <v>140</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B87" t="s">
         <v>141</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
         <v>142</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
         <v>143</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
         <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
         <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
         <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
         <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D93" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
         <v>148</v>
       </c>
       <c r="C94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
         <v>149</v>
       </c>
       <c r="C95" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
         <v>150</v>
       </c>
       <c r="C96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
         <v>151</v>
@@ -2374,35 +2374,35 @@
         <v>161</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
         <v>152</v>
       </c>
       <c r="C98" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D98" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
         <v>153</v>
       </c>
       <c r="C99" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2413,7 +2413,7 @@
         <v>154</v>
       </c>
       <c r="C100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D100" t="s">
         <v>211</v>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
         <v>155</v>
       </c>
       <c r="C101" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2441,7 +2441,7 @@
         <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D102" t="s">
         <v>212</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
         <v>157</v>
@@ -2458,7 +2458,7 @@
         <v>161</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:4">
